--- a/Resources/1994/Advanced_Percentile_1994.xlsx
+++ b/Resources/1994/Advanced_Percentile_1994.xlsx
@@ -1264,34 +1264,34 @@
     <t>kitegr01</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
-  </si>
-  <si>
-    <t>David Robinson*</t>
-  </si>
-  <si>
-    <t>Hakeem Olajuwon*</t>
+    <t>Shaquille O'Neal</t>
+  </si>
+  <si>
+    <t>David Robinson</t>
+  </si>
+  <si>
+    <t>Hakeem Olajuwon</t>
   </si>
   <si>
     <t>Shawn Kemp</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
-  </si>
-  <si>
-    <t>Patrick Ewing*</t>
+    <t>Reggie Miller</t>
+  </si>
+  <si>
+    <t>Patrick Ewing</t>
   </si>
   <si>
     <t>Mark Price</t>
   </si>
   <si>
-    <t>Karl Malone*</t>
-  </si>
-  <si>
-    <t>Charles Barkley*</t>
-  </si>
-  <si>
-    <t>Scottie Pippen*</t>
+    <t>Karl Malone</t>
+  </si>
+  <si>
+    <t>Charles Barkley</t>
+  </si>
+  <si>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Rik Smits</t>
@@ -1300,7 +1300,7 @@
     <t>Chad Gallagher</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Chris Webber</t>
@@ -1315,7 +1315,7 @@
     <t>Derrick Coleman</t>
   </si>
   <si>
-    <t>John Stockton*</t>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Glen Rice</t>
@@ -1324,7 +1324,7 @@
     <t>Alphonso Ford</t>
   </si>
   <si>
-    <t>Dominique Wilkins*</t>
+    <t>Dominique Wilkins</t>
   </si>
   <si>
     <t>Eric Murdock</t>
@@ -1351,7 +1351,7 @@
     <t>Steve Smith</t>
   </si>
   <si>
-    <t>Mitch Richmond*</t>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>Armen Gilliam</t>
@@ -1360,16 +1360,16 @@
     <t>Dell Curry</t>
   </si>
   <si>
-    <t>Dino Radja*</t>
+    <t>Dino Radja</t>
   </si>
   <si>
     <t>Chris Gatling</t>
   </si>
   <si>
-    <t>Clyde Drexler*</t>
-  </si>
-  <si>
-    <t>Gary Payton*</t>
+    <t>Clyde Drexler</t>
+  </si>
+  <si>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Horace Grant</t>
@@ -1396,7 +1396,7 @@
     <t>Nick Anderson</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Vlade Divac</t>
@@ -1483,7 +1483,7 @@
     <t>Mookie Blaylock</t>
   </si>
   <si>
-    <t>Joe Dumars*</t>
+    <t>Joe Dumars</t>
   </si>
   <si>
     <t>Vincent Askew</t>
@@ -1531,7 +1531,7 @@
     <t>Dee Brown</t>
   </si>
   <si>
-    <t>Chris Mullin*</t>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Tom Gugliotta</t>
@@ -1615,7 +1615,7 @@
     <t>Marty Conlon</t>
   </si>
   <si>
-    <t>Robert Parish*</t>
+    <t>Robert Parish</t>
   </si>
   <si>
     <t>Keith Jennings</t>
@@ -1669,7 +1669,7 @@
     <t>Willie Anderson</t>
   </si>
   <si>
-    <t>Dennis Rodman*</t>
+    <t>Dennis Rodman</t>
   </si>
   <si>
     <t>Andre Spencer</t>
@@ -1738,7 +1738,7 @@
     <t>Chuck Nevitt</t>
   </si>
   <si>
-    <t>Moses Malone*</t>
+    <t>Moses Malone</t>
   </si>
   <si>
     <t>John Salley</t>
@@ -1864,7 +1864,7 @@
     <t>Sam Bowie</t>
   </si>
   <si>
-    <t>Isiah Thomas*</t>
+    <t>Isiah Thomas</t>
   </si>
   <si>
     <t>Brian Shaw</t>
@@ -2143,7 +2143,7 @@
     <t>Mike Peplowski</t>
   </si>
   <si>
-    <t>James Worthy*</t>
+    <t>James Worthy</t>
   </si>
   <si>
     <t>Trevor Wilson</t>
